--- a/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
+++ b/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\04_CodeWithHarry\SIGMA_WEB_DEVELOPMENT_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C9C3FE-253F-498A-AE58-BB07028883A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B37613D-AA8E-4CAE-A999-E4D66E406C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -821,19 +821,19 @@
   <dimension ref="C1:M209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F12"/>
+      <selection activeCell="F10" sqref="F10:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="77.109375" customWidth="1"/>
+    <col min="13" max="13" width="77.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
         <v>133</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -861,7 +861,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -874,7 +874,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>134</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -902,7 +902,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -915,7 +915,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="8" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="8" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
@@ -923,11 +923,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="9" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D9" s="4"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="10" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="12" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
@@ -951,63 +951,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="13" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" ht="33.6" x14ac:dyDescent="0.65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="21" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="22" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="23" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="24" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="25" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="26" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="27" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D27" s="4" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="28" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="29" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="30" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D30" s="4" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="31" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D31" s="4" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="32" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D32" s="4" t="s">
         <v>24</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="33" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D33" s="4" t="s">
         <v>25</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="34" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D34" s="4" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="35" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D35" s="4" t="s">
         <v>27</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="36" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D36" s="4" t="s">
         <v>28</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="37" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D37" s="4" t="s">
         <v>29</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="38" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D38" s="4" t="s">
         <v>30</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="39" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D39" s="4" t="s">
         <v>31</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="40" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D40" s="4" t="s">
         <v>32</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="41" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D41" s="4" t="s">
         <v>33</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="42" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D42" s="4" t="s">
         <v>34</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="43" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D43" s="4" t="s">
         <v>35</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="44" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D44" s="4" t="s">
         <v>36</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="45" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D45" s="4" t="s">
         <v>37</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="46" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D46" s="4" t="s">
         <v>38</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="47" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D47" s="4" t="s">
         <v>39</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="48" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D48" s="4" t="s">
         <v>40</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="49" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D49" s="4" t="s">
         <v>41</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="50" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D50" s="4" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="51" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D51" s="4" t="s">
         <v>43</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="52" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D52" s="4" t="s">
         <v>44</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="53" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D53" s="4" t="s">
         <v>45</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="54" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D54" s="4" t="s">
         <v>46</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="55" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D55" s="4" t="s">
         <v>47</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="56" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D56" s="4" t="s">
         <v>48</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="57" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D57" s="4" t="s">
         <v>49</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="58" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D58" s="4" t="s">
         <v>50</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="59" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D59" s="4" t="s">
         <v>51</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="60" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D60" s="4" t="s">
         <v>52</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="61" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D61" s="4" t="s">
         <v>53</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="62" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D62" s="4" t="s">
         <v>54</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="63" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D63" s="4" t="s">
         <v>55</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="64" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D64" s="4" t="s">
         <v>56</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="65" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D65" s="4" t="s">
         <v>57</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="66" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D66" s="4" t="s">
         <v>58</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="67" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D67" s="4" t="s">
         <v>59</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="68" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D68" s="4" t="s">
         <v>60</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="69" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D69" s="4" t="s">
         <v>61</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="70" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D70" s="4" t="s">
         <v>62</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="71" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D71" s="4" t="s">
         <v>63</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="72" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D72" s="4" t="s">
         <v>64</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="73" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D73" s="4" t="s">
         <v>65</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="74" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D74" s="4" t="s">
         <v>66</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="75" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D75" s="4" t="s">
         <v>67</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="76" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D76" s="4" t="s">
         <v>68</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="77" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D77" s="4" t="s">
         <v>69</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="78" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D78" s="4" t="s">
         <v>70</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="79" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D79" s="4" t="s">
         <v>71</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="80" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D80" s="4" t="s">
         <v>72</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="81" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D81" s="4" t="s">
         <v>73</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="82" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D82" s="4" t="s">
         <v>74</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="83" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D83" s="4" t="s">
         <v>75</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="84" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D84" s="4" t="s">
         <v>76</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="85" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D85" s="4" t="s">
         <v>77</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="86" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D86" s="4" t="s">
         <v>78</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="87" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D87" s="4" t="s">
         <v>79</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="88" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D88" s="4" t="s">
         <v>80</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="89" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D89" s="4" t="s">
         <v>81</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="90" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D90" s="4" t="s">
         <v>82</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="91" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D91" s="4" t="s">
         <v>83</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="92" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D92" s="4" t="s">
         <v>84</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="93" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D93" s="4" t="s">
         <v>85</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="94" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D94" s="4" t="s">
         <v>86</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="95" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D95" s="4" t="s">
         <v>87</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="96" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D96" s="4" t="s">
         <v>88</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="97" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D97" s="4" t="s">
         <v>89</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="98" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D98" s="4" t="s">
         <v>90</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="99" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D99" s="4" t="s">
         <v>91</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="100" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D100" s="4" t="s">
         <v>92</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="101" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D101" s="4" t="s">
         <v>93</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="102" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D102" s="4" t="s">
         <v>94</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="103" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D103" s="4" t="s">
         <v>95</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="104" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D104" s="4" t="s">
         <v>96</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="105" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D105" s="4" t="s">
         <v>97</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="106" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D106" s="4" t="s">
         <v>98</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="107" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D107" s="4" t="s">
         <v>99</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="108" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D108" s="4" t="s">
         <v>100</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="109" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D109" s="4" t="s">
         <v>101</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="110" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D110" s="4" t="s">
         <v>102</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="111" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D111" s="4" t="s">
         <v>103</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="112" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D112" s="4" t="s">
         <v>104</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="113" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D113" s="4" t="s">
         <v>105</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="114" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D114" s="4" t="s">
         <v>106</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="115" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D115" s="4" t="s">
         <v>107</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="116" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D116" s="4" t="s">
         <v>108</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="117" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D117" s="4" t="s">
         <v>109</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="118" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D118" s="4" t="s">
         <v>110</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="119" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D119" s="4" t="s">
         <v>111</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="120" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D120" s="4" t="s">
         <v>112</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="121" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D121" s="4" t="s">
         <v>113</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="122" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D122" s="4" t="s">
         <v>114</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="123" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D123" s="4" t="s">
         <v>115</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="124" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D124" s="4" t="s">
         <v>116</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="125" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D125" s="4" t="s">
         <v>117</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="126" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D126" s="4" t="s">
         <v>118</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="127" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D127" s="4" t="s">
         <v>119</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="128" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D128" s="4" t="s">
         <v>120</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="129" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D129" s="4" t="s">
         <v>121</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="130" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D130" s="4" t="s">
         <v>122</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="131" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D131" s="4" t="s">
         <v>123</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="132" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D132" s="4" t="s">
         <v>124</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="133" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D133" s="4" t="s">
         <v>125</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="134" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D134" s="4" t="s">
         <v>126</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="135" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D135" s="4" t="s">
         <v>127</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="136" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D136" s="4" t="s">
         <v>128</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="137" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D137" s="4" t="s">
         <v>129</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="138" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D138" s="4" t="s">
         <v>130</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="139" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D139" s="4" t="s">
         <v>131</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="140" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D140" s="4" t="s">
         <v>132</v>
       </c>
@@ -1975,279 +1975,279 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="141" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D141" s="4"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="142" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D142" s="4"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="143" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D143" s="4"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="144" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D144" s="4"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="145" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D145" s="4"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="146" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D146" s="4"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="147" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D147" s="4"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="148" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D148" s="4"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="149" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D149" s="4"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="150" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D150" s="4"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="151" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D151" s="4"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="152" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D152" s="4"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="153" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D153" s="4"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="154" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D154" s="4"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="155" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D155" s="4"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="156" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D156" s="4"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="157" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D157" s="4"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="158" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D158" s="4"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="159" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D159" s="4"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="160" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D160" s="4"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="161" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D161" s="4"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="162" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D162" s="4"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="163" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D163" s="4"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="164" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D164" s="4"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="165" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D165" s="4"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="166" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D166" s="4"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="167" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D167" s="4"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="168" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D168" s="4"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="169" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D169" s="4"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="170" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D170" s="4"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="171" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D171" s="4"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="172" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D172" s="4"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="173" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D173" s="4"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="174" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D174" s="4"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="175" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D175" s="4"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="176" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D176" s="4"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="177" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D177" s="4"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="178" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D178" s="4"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="179" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D179" s="4"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="180" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D180" s="4"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="181" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D181" s="4"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="182" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D182" s="4"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="183" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D183" s="4"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="184" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D184" s="4"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="185" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D185" s="4"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="186" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D186" s="4"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="187" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D187" s="4"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="188" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D188" s="4"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="189" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D189" s="4"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="190" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D190" s="4"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="191" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D191" s="4"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="192" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D192" s="4"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="193" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D193" s="4"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="194" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D194" s="4"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="195" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D195" s="4"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="196" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D196" s="4"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="197" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D197" s="4"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="198" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D198" s="4"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="199" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D199" s="4"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="200" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D200" s="4"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="201" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D201" s="4"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="202" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D202" s="4"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="203" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D203" s="4"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="204" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D204" s="4"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="205" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D205" s="4"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="206" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D206" s="4"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="207" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D207" s="4"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="208" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D208" s="4"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="4:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="209" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D209" s="4"/>
       <c r="F209" s="5"/>
     </row>

--- a/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
+++ b/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\04_CodeWithHarry\SIGMA_WEB_DEVELOPMENT_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B37613D-AA8E-4CAE-A999-E4D66E406C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B738E05-5917-493F-A561-AD321503D5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1020,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1028,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">

--- a/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
+++ b/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\04_CodeWithHarry\SIGMA_WEB_DEVELOPMENT_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B738E05-5917-493F-A561-AD321503D5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0999214-A502-4A7A-AF0D-35CC7D449217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,7 +821,7 @@
   <dimension ref="C1:M209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F23"/>
+      <selection activeCell="F10" sqref="F10:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">

--- a/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
+++ b/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\04_CodeWithHarry\SIGMA_WEB_DEVELOPMENT_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0999214-A502-4A7A-AF0D-35CC7D449217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACDA231-A5A3-4D44-AB23-A973FCAD6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,7 +821,7 @@
   <dimension ref="C1:M209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F24"/>
+      <selection activeCell="F10" sqref="F10:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1052,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1060,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="F26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1068,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">

--- a/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
+++ b/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\04_CodeWithHarry\SIGMA_WEB_DEVELOPMENT_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACDA231-A5A3-4D44-AB23-A973FCAD6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2AAFC5-814E-45EB-A4A4-0E6998373171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Lectures</t>
   </si>
@@ -439,6 +439,21 @@
   </si>
   <si>
     <t>`-By CodeWithHarry (Youtube videos)</t>
+  </si>
+  <si>
+    <t>Video 132</t>
+  </si>
+  <si>
+    <t>Video 133</t>
+  </si>
+  <si>
+    <t>Video 134</t>
+  </si>
+  <si>
+    <t>Video 135</t>
+  </si>
+  <si>
+    <t>Video 136</t>
   </si>
 </sst>
 </file>
@@ -820,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1091,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1084,7 +1099,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1092,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1100,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1976,24 +1991,44 @@
       </c>
     </row>
     <row r="141" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="D141" s="4"/>
-      <c r="F141" s="5"/>
+      <c r="D141" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F141" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="D142" s="4"/>
-      <c r="F142" s="5"/>
+      <c r="D142" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="D143" s="4"/>
-      <c r="F143" s="5"/>
+      <c r="D143" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="D144" s="4"/>
-      <c r="F144" s="5"/>
+      <c r="D144" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="D145" s="4"/>
-      <c r="F145" s="5"/>
+      <c r="D145" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F145" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="D146" s="4"/>

--- a/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
+++ b/SIGMA_WEB_DEVELOPMENT_COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\04_CodeWithHarry\SIGMA_WEB_DEVELOPMENT_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2AAFC5-814E-45EB-A4A4-0E6998373171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21657B-4A81-4E92-81FE-0DD2850E8ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1123,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1131,7 +1131,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1139,7 +1139,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="F35" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1155,7 +1155,7 @@
         <v>28</v>
       </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1163,7 +1163,7 @@
         <v>29</v>
       </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
@@ -1179,7 +1179,7 @@
         <v>31</v>
       </c>
       <c r="F39" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
